--- a/Differentiation Tree Dataset/differentiation-tree-all-variables.xlsx
+++ b/Differentiation Tree Dataset/differentiation-tree-all-variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradly\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradly\Documents\GitHub\DevoWorm\Differentiation Tree Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5309" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="653">
   <si>
     <t>X</t>
   </si>
@@ -1934,9 +1934,6 @@
     <t>Size Differential (Positive Values = A&gt;B)</t>
   </si>
   <si>
-    <t>Asymmetric (1 = Yes)</t>
-  </si>
-  <si>
     <t>Larger Cell (X =Missing)</t>
   </si>
   <si>
@@ -1977,6 +1974,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Larger Cell Identity</t>
+  </si>
+  <si>
+    <t>Asymmetric Division (1 = Yes)</t>
+  </si>
+  <si>
+    <t>Larger Cells Above Threshold (+/- 0.5)</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2076,6 +2082,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2358,114 +2373,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC643"/>
+  <dimension ref="A1:AE643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
     <col min="7" max="9" width="12.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="4"/>
-    <col min="16" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="21" width="17.85546875" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="22.28515625" customWidth="1"/>
-    <col min="29" max="29" width="38" customWidth="1"/>
+    <col min="16" max="21" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="23" style="1" customWidth="1"/>
+    <col min="27" max="27" width="33.7109375" customWidth="1"/>
+    <col min="28" max="28" width="38.7109375" customWidth="1"/>
+    <col min="29" max="29" width="54.7109375" customWidth="1"/>
+    <col min="30" max="30" width="31.85546875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="47.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>649</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="W1" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="AC1" s="9" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2547,8 +2571,14 @@
       <c r="AC2">
         <v>1.6669002362500009</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD2" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2630,8 +2660,12 @@
       <c r="AC3">
         <v>-0.82374494375001461</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD3" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE3" s="13"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2713,8 +2747,14 @@
       <c r="AC4">
         <v>-5.0640319974999954</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2796,8 +2836,12 @@
       <c r="AC5">
         <v>-0.39074360624998405</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE5" s="13"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2879,8 +2923,14 @@
       <c r="AC6">
         <v>1.0564043800000036</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2962,8 +3012,12 @@
       <c r="AC7">
         <v>0.16597692750000448</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE7" s="13"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3045,8 +3099,12 @@
       <c r="AC8">
         <v>-3.0066325000007055E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE8" s="13"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3128,8 +3186,12 @@
       <c r="AC9">
         <v>0.2278418550000012</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE9" s="13"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3211,8 +3273,14 @@
       <c r="AC10">
         <v>1.6569367425000081</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3294,8 +3362,14 @@
       <c r="AC11">
         <v>1.6631028887499966</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3377,8 +3451,14 @@
       <c r="AC12">
         <v>-2.0862421325000042</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3460,8 +3540,14 @@
       <c r="AC13">
         <v>-1.2556204887499973</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3543,8 +3629,14 @@
       <c r="AC14">
         <v>-2.0987293899999955</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD14" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3626,8 +3718,14 @@
       <c r="AC15">
         <v>0.9927293262500001</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD15" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3709,8 +3807,14 @@
       <c r="AC16">
         <v>-2.2284692899999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3792,8 +3896,12 @@
       <c r="AC17">
         <v>0.48831311874999983</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD17" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE17" s="13"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3875,8 +3983,12 @@
       <c r="AC18">
         <v>-0.46555149374999871</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE18" s="13"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3958,8 +4070,12 @@
       <c r="AC19">
         <v>-9.7291104999996492E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE19" s="13"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4041,8 +4157,12 @@
       <c r="AC20">
         <v>-0.51936898874999571</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE20" s="13"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4124,8 +4244,14 @@
       <c r="AC21">
         <v>-1.8034416925000016</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4207,8 +4333,12 @@
       <c r="AC22">
         <v>-0.46681092499999011</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE22" s="13"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4290,8 +4420,12 @@
       <c r="AC23">
         <v>-0.2845298125000042</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE23" s="13"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4373,8 +4507,14 @@
       <c r="AC24">
         <v>1.4320105962499952</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4456,8 +4596,12 @@
       <c r="AC25">
         <v>8.2906303750000632E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE25" s="13"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4539,8 +4683,14 @@
       <c r="AC26">
         <v>-2.9669084387499964</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4622,8 +4772,12 @@
       <c r="AC27">
         <v>-0.5434418037499924</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE27" s="13"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4705,8 +4859,14 @@
       <c r="AC28">
         <v>-4.5441664575000047</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="AE28" s="13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4788,8 +4948,14 @@
       <c r="AC29">
         <v>-4.8718423825000059</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE29" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4871,8 +5037,14 @@
       <c r="AC30">
         <v>-4.3026213574999943</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD30" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE30" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4954,8 +5126,12 @@
       <c r="AC31">
         <v>-0.74417857249999741</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD31" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE31" s="13"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5015,8 +5191,12 @@
       <c r="AC32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="13"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5098,8 +5278,12 @@
       <c r="AC33">
         <v>8.0746375000018134E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD33" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="AE33" s="13"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5181,8 +5365,12 @@
       <c r="AC34">
         <v>4.1600864999992382E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD34" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="AE34" s="13"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5264,8 +5452,12 @@
       <c r="AC35">
         <v>0.5878645149999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="AE35" s="13"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5347,8 +5539,12 @@
       <c r="AC36">
         <v>0.65081936999999357</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD36" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE36" s="13"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5430,8 +5626,12 @@
       <c r="AC37">
         <v>-0.30885992875000312</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE37" s="13"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5513,8 +5713,12 @@
       <c r="AC38">
         <v>-0.53254982624999769</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD38" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE38" s="13"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5596,8 +5800,12 @@
       <c r="AC39">
         <v>-0.1905076087500035</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD39" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE39" s="13"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5679,8 +5887,12 @@
       <c r="AC40">
         <v>0.24759103250000436</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD40" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="AE40" s="13"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5762,8 +5974,12 @@
       <c r="AC41">
         <v>0.64620566624999043</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE41" s="13"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5845,8 +6061,12 @@
       <c r="AC42">
         <v>0.284595865</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE42" s="13"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5928,8 +6148,12 @@
       <c r="AC43">
         <v>0.26769801624999445</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="AE43" s="13"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6011,8 +6235,12 @@
       <c r="AC44">
         <v>0.45545714624999079</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD44" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE44" s="13"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6094,8 +6322,12 @@
       <c r="AC45">
         <v>0.37382442374998703</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD45" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE45" s="13"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6177,8 +6409,12 @@
       <c r="AC46">
         <v>0.36023729499999035</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE46" s="13"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6260,8 +6496,12 @@
       <c r="AC47">
         <v>0.13614082375000436</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD47" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE47" s="13"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6343,8 +6583,12 @@
       <c r="AC48">
         <v>0.16068787249999161</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE48" s="13"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6426,8 +6670,14 @@
       <c r="AC49">
         <v>-2.113199677499999</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD49" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE49" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6509,8 +6759,14 @@
       <c r="AC50">
         <v>-2.1747159525000015</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE50" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6592,8 +6848,14 @@
       <c r="AC51">
         <v>-2.61429698500001</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD51" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE51" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6675,8 +6937,12 @@
       <c r="AC52">
         <v>0.4630813300000014</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE52" s="13"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6758,8 +7024,14 @@
       <c r="AC53">
         <v>-1.5865690037500002</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE53" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6841,8 +7113,14 @@
       <c r="AC54">
         <v>2.074995712499998</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE54" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6924,8 +7202,14 @@
       <c r="AC55">
         <v>-2.963779777500001</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE55" s="13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7007,8 +7291,12 @@
       <c r="AC56">
         <v>2.155761875000195E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD56" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE56" s="13"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7090,8 +7378,14 @@
       <c r="AC57">
         <v>-3.2613917299999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD57" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE57" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7173,8 +7467,14 @@
       <c r="AC58">
         <v>-1.7910305075000039</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD58" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE58" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7256,8 +7556,14 @@
       <c r="AC59">
         <v>-3.6707746950000057</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD59" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE59" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7339,8 +7645,12 @@
       <c r="AC60">
         <v>0.19731984375000167</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD60" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE60" s="13"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7409,8 +7719,12 @@
       <c r="AC61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD61" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE61" s="13"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7492,8 +7806,12 @@
       <c r="AC62">
         <v>-7.5211535000001106E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD62" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE62" s="13"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7575,8 +7893,12 @@
       <c r="AC63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD63" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE63" s="13"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7658,8 +7980,12 @@
       <c r="AC64">
         <v>0.28295012857142865</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD64" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE64" s="13"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7741,8 +8067,12 @@
       <c r="AC65">
         <v>-0.12464261124999609</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD65" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE65" s="13"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7824,8 +8154,12 @@
       <c r="AC66">
         <v>0.55573540000000321</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD66" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE66" s="13"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7907,8 +8241,14 @@
       <c r="AC67">
         <v>2.2570825649999975</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD67" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE67" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7968,8 +8308,9 @@
       <c r="AC68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE68" s="13"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8051,8 +8392,12 @@
       <c r="AC69">
         <v>0.85884418624999626</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD69" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE69" s="13"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8134,8 +8479,14 @@
       <c r="AC70">
         <v>1.422950371249982</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD70" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE70" s="13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8217,8 +8568,12 @@
       <c r="AC71">
         <v>0.67087014124999911</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD71" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE71" s="13"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8300,8 +8655,14 @@
       <c r="AC72">
         <v>1.6087998375000012</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD72" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE72" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8383,8 +8744,12 @@
       <c r="AC73">
         <v>-0.27641194000000269</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD73" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE73" s="13"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8466,8 +8831,12 @@
       <c r="AC74">
         <v>0.66238378500000294</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD74" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE74" s="13"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8549,8 +8918,12 @@
       <c r="AC75">
         <v>0.19122537374999382</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD75" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE75" s="13"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8632,8 +9005,14 @@
       <c r="AC76">
         <v>2.0182171862500056</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD76" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE76" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8715,8 +9094,12 @@
       <c r="AC77">
         <v>2.8276648749994138E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD77" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE77" s="13"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8798,8 +9181,12 @@
       <c r="AC78">
         <v>-0.26481029624999053</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD78" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE78" s="13"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8881,8 +9268,12 @@
       <c r="AC79">
         <v>7.6815569999993727E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD79" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE79" s="13"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8964,8 +9355,12 @@
       <c r="AC80">
         <v>-0.13972267999999843</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD80" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE80" s="13"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9047,8 +9442,12 @@
       <c r="AC81">
         <v>0.67092146499999217</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD81" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE81" s="13"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9130,8 +9529,12 @@
       <c r="AC82">
         <v>0.55016182499999644</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD82" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE82" s="13"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9213,8 +9616,14 @@
       <c r="AC83">
         <v>-1.1172677249999907</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD83" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE83" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9296,8 +9705,12 @@
       <c r="AC84">
         <v>5.8356446249987926E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD84" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE84" s="13"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9379,8 +9792,12 @@
       <c r="AC85">
         <v>0.91382596374999991</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD85" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE85" s="13"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9462,8 +9879,12 @@
       <c r="AC86">
         <v>0.64802821250000164</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD86" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE86" s="13"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9545,8 +9966,12 @@
       <c r="AC87">
         <v>0.41134634500000544</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD87" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE87" s="13"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9628,8 +10053,12 @@
       <c r="AC88">
         <v>0.87399088000000802</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD88" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE88" s="13"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9711,8 +10140,14 @@
       <c r="AC89">
         <v>1.4312092725000127</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD89" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE89" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9794,8 +10229,12 @@
       <c r="AC90">
         <v>0.35186060499999172</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD90" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE90" s="13"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9877,8 +10316,14 @@
       <c r="AC91">
         <v>-1.2800271162499968</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD91" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE91" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9960,8 +10405,12 @@
       <c r="AC92">
         <v>1.9625825000012753E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD92" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE92" s="13"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10043,8 +10492,12 @@
       <c r="AC93">
         <v>0.50923648624999629</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD93" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AE93" s="13"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10126,8 +10579,12 @@
       <c r="AC94">
         <v>0.58448640499999271</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD94" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE94" s="13"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10209,8 +10666,12 @@
       <c r="AC95">
         <v>0.49436747000001446</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD95" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE95" s="13"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10292,8 +10753,12 @@
       <c r="AC96">
         <v>0.47852409875000035</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD96" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE96" s="13"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10375,8 +10840,14 @@
       <c r="AC97">
         <v>2.2383292025000046</v>
       </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD97" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE97" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10458,8 +10929,14 @@
       <c r="AC98">
         <v>-1.5103891600000026</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD98" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE98" s="13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10541,8 +11018,14 @@
       <c r="AC99">
         <v>-1.6276975600000014</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD99" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE99" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10624,8 +11107,12 @@
       <c r="AC100">
         <v>-0.45092950750000682</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD100" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE100" s="13"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10707,8 +11194,12 @@
       <c r="AC101">
         <v>0.32770097124999609</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD101" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE101" s="13"/>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10790,8 +11281,14 @@
       <c r="AC102">
         <v>-2.3530258900000049</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD102" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE102" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10873,8 +11370,12 @@
       <c r="AC103">
         <v>0.1611483662499964</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD103" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE103" s="13"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10956,8 +11457,12 @@
       <c r="AC104">
         <v>0.19562344250000052</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD104" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE104" s="13"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11039,8 +11544,12 @@
       <c r="AC105">
         <v>0.22729197749998775</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD105" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE105" s="13"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11122,8 +11631,12 @@
       <c r="AC106">
         <v>0.30120759249999907</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD106" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE106" s="13"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11205,8 +11718,12 @@
       <c r="AC107">
         <v>0.17942699750000202</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD107" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE107" s="13"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11275,8 +11792,12 @@
       <c r="AC108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD108" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE108" s="13"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11332,8 +11853,9 @@
       <c r="AC109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE109" s="13"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11402,8 +11924,12 @@
       <c r="AC110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD110" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE110" s="13"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11459,8 +11985,9 @@
       <c r="AC111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE111" s="13"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11520,8 +12047,9 @@
       <c r="AC112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE112" s="13"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11594,8 +12122,12 @@
       <c r="AC113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD113" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE113" s="13"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11655,8 +12187,9 @@
       <c r="AC114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE114" s="13"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11716,8 +12249,9 @@
       <c r="AC115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE115" s="13"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11799,8 +12333,14 @@
       <c r="AC116">
         <v>-1.7611953033928529</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD116" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE116" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11882,8 +12422,14 @@
       <c r="AC117">
         <v>-1.687499083750005</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD117" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE117" s="13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11965,8 +12511,14 @@
       <c r="AC118">
         <v>-3.3231577837500126</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD118" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE118" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12048,8 +12600,12 @@
       <c r="AC119">
         <v>0.29823231874999578</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD119" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE119" s="13"/>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12131,8 +12687,14 @@
       <c r="AC120">
         <v>-1.7579249237499894</v>
       </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD120" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE120" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12214,8 +12776,12 @@
       <c r="AC121">
         <v>-0.92744650000000917</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD121" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE121" s="13"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12297,8 +12863,12 @@
       <c r="AC122">
         <v>0.50429297999999534</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD122" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE122" s="13"/>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12380,8 +12950,12 @@
       <c r="AC123">
         <v>0.36450332499999405</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD123" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE123" s="13"/>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12437,8 +13011,9 @@
       <c r="AC124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE124" s="13"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12498,8 +13073,9 @@
       <c r="AC125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE125" s="13"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12581,8 +13157,12 @@
       <c r="AC126">
         <v>-0.22682993285714304</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD126" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE126" s="13"/>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12664,8 +13244,12 @@
       <c r="AC127">
         <v>0.88013203428571529</v>
       </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD127" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE127" s="13"/>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -12747,8 +13331,12 @@
       <c r="AC128">
         <v>0.55241488249999549</v>
       </c>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD128" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE128" s="13"/>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -12830,8 +13418,12 @@
       <c r="AC129">
         <v>0.94339562999999771</v>
       </c>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD129" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE129" s="13"/>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -12913,8 +13505,14 @@
       <c r="AC130">
         <v>1.172122737499997</v>
       </c>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD130" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE130" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12983,8 +13581,12 @@
       <c r="AC131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD131" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE131" s="13"/>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13040,8 +13642,9 @@
       <c r="AC132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE132" s="13"/>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13097,8 +13700,9 @@
       <c r="AC133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE133" s="13"/>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13158,8 +13762,9 @@
       <c r="AC134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE134" s="13"/>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13241,8 +13846,12 @@
       <c r="AC135">
         <v>0.79493135124999981</v>
       </c>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD135" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE135" s="13"/>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13324,8 +13933,12 @@
       <c r="AC136">
         <v>0.14881610500000164</v>
       </c>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD136" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE136" s="13"/>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13398,8 +14011,12 @@
       <c r="AC137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD137" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE137" s="13"/>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13472,8 +14089,12 @@
       <c r="AC138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD138" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE138" s="13"/>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13533,8 +14154,9 @@
       <c r="AC139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE139" s="13"/>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13603,8 +14225,12 @@
       <c r="AC140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD140" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE140" s="13"/>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13660,8 +14286,9 @@
       <c r="AC141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE141" s="13"/>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13717,8 +14344,9 @@
       <c r="AC142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE142" s="13"/>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13774,8 +14402,9 @@
       <c r="AC143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE143" s="13"/>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13831,8 +14460,9 @@
       <c r="AC144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE144" s="13"/>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13914,8 +14544,12 @@
       <c r="AC145">
         <v>0.90090911875000046</v>
       </c>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD145" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE145" s="13"/>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13997,8 +14631,14 @@
       <c r="AC146">
         <v>1.2902531162500068</v>
       </c>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD146" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE146" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14080,8 +14720,12 @@
       <c r="AC147">
         <v>0.48128809500000358</v>
       </c>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD147" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE147" s="13"/>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -14141,8 +14785,9 @@
       <c r="AC148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE148" s="13"/>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -14224,8 +14869,12 @@
       <c r="AC149">
         <v>0.23882553125000072</v>
       </c>
-    </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD149" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE149" s="13"/>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -14307,8 +14956,12 @@
       <c r="AC150">
         <v>-2.5372861250005485E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD150" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE150" s="13"/>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -14390,8 +15043,14 @@
       <c r="AC151">
         <v>1.5519416262500059</v>
       </c>
-    </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD151" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE151" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -14473,8 +15132,12 @@
       <c r="AC152">
         <v>0.80429189000000889</v>
       </c>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD152" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE152" s="13"/>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -14537,8 +15200,9 @@
       <c r="AC153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE153" s="13"/>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -14601,8 +15265,9 @@
       <c r="AC154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE154" s="13"/>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -14665,8 +15330,9 @@
       <c r="AC155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE155" s="13"/>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -14748,8 +15414,12 @@
       <c r="AC156">
         <v>0.19167950874999917</v>
       </c>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD156" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE156" s="13"/>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -14831,8 +15501,14 @@
       <c r="AC157">
         <v>1.6420344837499954</v>
       </c>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD157" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE157" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14915,8 +15591,12 @@
       <c r="AC158">
         <v>-8.8477899999972465E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD158" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE158" s="13"/>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -14979,8 +15659,9 @@
       <c r="AC159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE159" s="13"/>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -15063,8 +15744,12 @@
       <c r="AC160">
         <v>-0.62605067999999875</v>
       </c>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD160" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE160" s="13"/>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15147,8 +15832,12 @@
       <c r="AC161">
         <v>-9.093701999999837E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD161" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE161" s="13"/>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15211,8 +15900,9 @@
       <c r="AC162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE162" s="13"/>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15295,8 +15985,12 @@
       <c r="AC163">
         <v>4.1299330000001078E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD163" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE163" s="13"/>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15379,8 +16073,12 @@
       <c r="AC164">
         <v>-0.84493061999999952</v>
       </c>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD164" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE164" s="13"/>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -15463,8 +16161,12 @@
       <c r="AC165">
         <v>0.33909178999999767</v>
       </c>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD165" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE165" s="13"/>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -15537,8 +16239,12 @@
       <c r="AC166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD166" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE166" s="13"/>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -15611,8 +16317,12 @@
       <c r="AC167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD167" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE167" s="13"/>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -15685,8 +16395,12 @@
       <c r="AC168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD168" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE168" s="13"/>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -15749,8 +16463,9 @@
       <c r="AC169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE169" s="13"/>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -15823,8 +16538,12 @@
       <c r="AC170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD170" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE170" s="13"/>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -15897,8 +16616,12 @@
       <c r="AC171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD171" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE171" s="13"/>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -15981,8 +16704,14 @@
       <c r="AC172">
         <v>1.3442748900000012</v>
       </c>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD172" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE172" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16055,8 +16784,12 @@
       <c r="AC173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD173" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE173" s="13"/>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16139,8 +16872,12 @@
       <c r="AC174">
         <v>-1.7570509999998762E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD174" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE174" s="13"/>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16203,8 +16940,9 @@
       <c r="AC175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE175" s="13"/>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16287,8 +17025,12 @@
       <c r="AC176">
         <v>0.74838600999999727</v>
       </c>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD176" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE176" s="13"/>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16371,8 +17113,12 @@
       <c r="AC177">
         <v>-0.43964533999999844</v>
       </c>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD177" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE177" s="13"/>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16455,8 +17201,12 @@
       <c r="AC178">
         <v>0.2472538900000032</v>
       </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD178" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE178" s="13"/>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16529,8 +17279,12 @@
       <c r="AC179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD179" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE179" s="13"/>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16613,8 +17367,14 @@
       <c r="AC180">
         <v>4.7657644700000006</v>
       </c>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD180" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE180" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16697,8 +17457,12 @@
       <c r="AC181">
         <v>0.39714149000000276</v>
       </c>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD181" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE181" s="13"/>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16771,8 +17535,12 @@
       <c r="AC182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD182" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE182" s="13"/>
+    </row>
+    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -16855,8 +17623,12 @@
       <c r="AC183">
         <v>-3.1002600000036296E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD183" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE183" s="13"/>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -16939,8 +17711,12 @@
       <c r="AC184">
         <v>0.31724756999999926</v>
       </c>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD184" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE184" s="13"/>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -17023,8 +17799,12 @@
       <c r="AC185">
         <v>-0.35225855000000195</v>
       </c>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD185" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE185" s="13"/>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -17097,8 +17877,14 @@
       <c r="AC186">
         <v>37.734288810000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD186" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE186" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -17181,8 +17967,12 @@
       <c r="AC187">
         <v>-0.2925091600000016</v>
       </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD187" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE187" s="13"/>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -17245,8 +18035,9 @@
       <c r="AC188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE188" s="13"/>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -17309,8 +18100,9 @@
       <c r="AC189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE189" s="13"/>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -17373,8 +18165,9 @@
       <c r="AC190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE190" s="13"/>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -17437,8 +18230,9 @@
       <c r="AC191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE191" s="13"/>
+    </row>
+    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -17521,8 +18315,14 @@
       <c r="AC192">
         <v>-0.97134087999999963</v>
       </c>
-    </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD192" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE192" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -17605,8 +18405,12 @@
       <c r="AC193">
         <v>-0.41227261000000226</v>
       </c>
-    </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD193" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE193" s="13"/>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -17689,8 +18493,12 @@
       <c r="AC194">
         <v>-0.51889846000000261</v>
       </c>
-    </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD194" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE194" s="13"/>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -17773,8 +18581,12 @@
       <c r="AC195">
         <v>-0.21380431000000044</v>
       </c>
-    </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD195" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE195" s="13"/>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -17837,8 +18649,9 @@
       <c r="AC196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE196" s="13"/>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -17901,8 +18714,9 @@
       <c r="AC197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE197" s="13"/>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -17965,8 +18779,9 @@
       <c r="AC198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE198" s="13"/>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18029,8 +18844,9 @@
       <c r="AC199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE199" s="13"/>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -18113,8 +18929,14 @@
       <c r="AC200">
         <v>-1.5986373099999938</v>
       </c>
-    </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD200" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE200" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -18197,8 +19019,12 @@
       <c r="AC201">
         <v>6.4290799999994874E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD201" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE201" s="13"/>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -18281,8 +19107,12 @@
       <c r="AC202">
         <v>-0.78139163000000167</v>
       </c>
-    </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD202" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE202" s="13"/>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -18365,8 +19195,12 @@
       <c r="AC203">
         <v>0.85818311999999963</v>
       </c>
-    </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD203" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE203" s="13"/>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -18429,8 +19263,9 @@
       <c r="AC204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE204" s="13"/>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -18493,8 +19328,9 @@
       <c r="AC205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE205" s="13"/>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -18557,8 +19393,9 @@
       <c r="AC206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE206" s="13"/>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -18641,8 +19478,14 @@
       <c r="AC207">
         <v>-1.625392600000005</v>
       </c>
-    </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD207" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE207" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -18705,8 +19548,9 @@
       <c r="AC208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE208" s="13"/>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -18769,8 +19613,9 @@
       <c r="AC209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE209" s="13"/>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -18833,8 +19678,9 @@
       <c r="AC210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE210" s="13"/>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -18917,8 +19763,12 @@
       <c r="AC211">
         <v>-0.54980348000000134</v>
       </c>
-    </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD211" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE211" s="13"/>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18981,8 +19831,9 @@
       <c r="AC212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE212" s="13"/>
+    </row>
+    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -19045,8 +19896,9 @@
       <c r="AC213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE213" s="13"/>
+    </row>
+    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -19109,8 +19961,9 @@
       <c r="AC214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE214" s="13"/>
+    </row>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -19193,8 +20046,14 @@
       <c r="AC215">
         <v>-1.5225436800000054</v>
       </c>
-    </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD215" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE215" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -19277,8 +20136,14 @@
       <c r="AC216">
         <v>-2.7580912399999988</v>
       </c>
-    </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD216" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE216" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -19361,8 +20226,14 @@
       <c r="AC217">
         <v>-3.8319888899999981</v>
       </c>
-    </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD217" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE217" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19445,8 +20316,14 @@
       <c r="AC218">
         <v>2.7594815200000014</v>
       </c>
-    </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD218" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE218" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -19529,8 +20406,14 @@
       <c r="AC219">
         <v>-2.3118777800000032</v>
       </c>
-    </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD219" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE219" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -19613,8 +20496,12 @@
       <c r="AC220">
         <v>0.58256536999999753</v>
       </c>
-    </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD220" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE220" s="13"/>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -19697,8 +20584,14 @@
       <c r="AC221">
         <v>-1.2558357300000011</v>
       </c>
-    </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD221" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE221" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -19781,8 +20674,12 @@
       <c r="AC222">
         <v>-5.5685849999996151E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD222" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE222" s="13"/>
+    </row>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -19865,8 +20762,12 @@
       <c r="AC223">
         <v>-0.19541006000000039</v>
       </c>
-    </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD223" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE223" s="13"/>
+    </row>
+    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19939,8 +20840,12 @@
       <c r="AC224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD224" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE224" s="13"/>
+    </row>
+    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -20023,8 +20928,14 @@
       <c r="AC225">
         <v>-1.3827340899999996</v>
       </c>
-    </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD225" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE225" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -20107,8 +21018,14 @@
       <c r="AC226">
         <v>1.3028421299999948</v>
       </c>
-    </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD226" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE226" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -20191,8 +21108,12 @@
       <c r="AC227">
         <v>-0.91876822999999774</v>
       </c>
-    </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD227" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE227" s="13"/>
+    </row>
+    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -20275,8 +21196,12 @@
       <c r="AC228">
         <v>-0.18365792999999542</v>
       </c>
-    </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD228" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE228" s="13"/>
+    </row>
+    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -20359,8 +21284,12 @@
       <c r="AC229">
         <v>-0.31143176999999866</v>
       </c>
-    </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD229" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE229" s="13"/>
+    </row>
+    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -20443,8 +21372,12 @@
       <c r="AC230">
         <v>-6.7595860000004393E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD230" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE230" s="13"/>
+    </row>
+    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -20527,8 +21460,12 @@
       <c r="AC231">
         <v>0.28710519999999917</v>
       </c>
-    </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD231" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE231" s="13"/>
+    </row>
+    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -20599,8 +21536,12 @@
       <c r="AC232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD232" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE232" s="13"/>
+    </row>
+    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -20659,8 +21600,9 @@
       <c r="AC233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE233" s="13"/>
+    </row>
+    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20719,8 +21661,9 @@
       <c r="AC234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE234" s="13"/>
+    </row>
+    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -20791,8 +21734,14 @@
       <c r="AC235">
         <v>33.832503090000003</v>
       </c>
-    </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD235" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE235" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20863,8 +21812,14 @@
       <c r="AC236">
         <v>34.147446100000003</v>
       </c>
-    </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD236" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE236" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20935,8 +21890,12 @@
       <c r="AC237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD237" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE237" s="13"/>
+    </row>
+    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -21007,8 +21966,12 @@
       <c r="AC238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD238" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE238" s="13"/>
+    </row>
+    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -21079,8 +22042,12 @@
       <c r="AC239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD239" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE239" s="13"/>
+    </row>
+    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -21163,8 +22130,12 @@
       <c r="AC240">
         <v>0.92113274999999817</v>
       </c>
-    </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD240" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE240" s="13"/>
+    </row>
+    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -21247,8 +22218,12 @@
       <c r="AC241">
         <v>0.57028087000000482</v>
       </c>
-    </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD241" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE241" s="13"/>
+    </row>
+    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -21331,8 +22306,12 @@
       <c r="AC242">
         <v>0.51149155000000235</v>
       </c>
-    </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD242" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE242" s="13"/>
+    </row>
+    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -21415,8 +22394,12 @@
       <c r="AC243">
         <v>0.82618129000000096</v>
       </c>
-    </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD243" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE243" s="13"/>
+    </row>
+    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21487,8 +22470,12 @@
       <c r="AC244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD244" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE244" s="13"/>
+    </row>
+    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21559,8 +22546,12 @@
       <c r="AC245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD245" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE245" s="13"/>
+    </row>
+    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -21643,8 +22634,12 @@
       <c r="AC246">
         <v>-2.5067329999998833E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD246" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE246" s="13"/>
+    </row>
+    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -21727,8 +22722,12 @@
       <c r="AC247">
         <v>6.847057000000234E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD247" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE247" s="13"/>
+    </row>
+    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -21787,8 +22786,9 @@
       <c r="AC248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE248" s="13"/>
+    </row>
+    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -21847,8 +22847,9 @@
       <c r="AC249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE249" s="13"/>
+    </row>
+    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -21931,8 +22932,12 @@
       <c r="AC250">
         <v>-0.59500116000000247</v>
       </c>
-    </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD250" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE250" s="13"/>
+    </row>
+    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -22003,8 +23008,12 @@
       <c r="AC251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD251" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE251" s="13"/>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -22063,8 +23072,9 @@
       <c r="AC252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE252" s="13"/>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -22147,8 +23157,12 @@
       <c r="AC253">
         <v>0.14753904999999889</v>
       </c>
-    </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD253" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE253" s="13"/>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -22231,8 +23245,12 @@
       <c r="AC254">
         <v>0.1101011000000014</v>
       </c>
-    </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD254" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE254" s="13"/>
+    </row>
+    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22315,8 +23333,12 @@
       <c r="AC255">
         <v>-0.12485236999999927</v>
       </c>
-    </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD255" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE255" s="13"/>
+    </row>
+    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22387,8 +23409,12 @@
       <c r="AC256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD256" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE256" s="13"/>
+    </row>
+    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -22447,8 +23473,9 @@
       <c r="AC257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE257" s="13"/>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22507,8 +23534,9 @@
       <c r="AC258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE258" s="13"/>
+    </row>
+    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22591,8 +23619,12 @@
       <c r="AC259">
         <v>0.78729870999999463</v>
       </c>
-    </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD259" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE259" s="13"/>
+    </row>
+    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22663,8 +23695,14 @@
       <c r="AC260">
         <v>33.896564429999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD260" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE260" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22723,8 +23761,9 @@
       <c r="AC261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE261" s="13"/>
+    </row>
+    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -22783,8 +23822,9 @@
       <c r="AC262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE262" s="13"/>
+    </row>
+    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22843,8 +23883,9 @@
       <c r="AC263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE263" s="13"/>
+    </row>
+    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22915,8 +23956,12 @@
       <c r="AC264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD264" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE264" s="13"/>
+    </row>
+    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22999,8 +24044,12 @@
       <c r="AC265">
         <v>9.7234929999999054E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD265" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE265" s="13"/>
+    </row>
+    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -23059,8 +24108,9 @@
       <c r="AC266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE266" s="13"/>
+    </row>
+    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -23143,8 +24193,12 @@
       <c r="AC267">
         <v>0.92777394000000157</v>
       </c>
-    </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD267" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE267" s="13"/>
+    </row>
+    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -23215,8 +24269,12 @@
       <c r="AC268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD268" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE268" s="13"/>
+    </row>
+    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -23299,8 +24357,12 @@
       <c r="AC269">
         <v>9.81549999999487E-3</v>
       </c>
-    </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD269" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE269" s="13"/>
+    </row>
+    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -23359,8 +24421,9 @@
       <c r="AC270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE270" s="13"/>
+    </row>
+    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -23443,8 +24506,14 @@
       <c r="AC271">
         <v>0.95943345999999963</v>
       </c>
-    </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD271" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE271" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -23503,8 +24572,9 @@
       <c r="AC272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE272" s="13"/>
+    </row>
+    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -23563,8 +24633,9 @@
       <c r="AC273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE273" s="13"/>
+    </row>
+    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -23627,8 +24698,9 @@
       <c r="AC274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE274" s="13"/>
+    </row>
+    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -23701,8 +24773,12 @@
       <c r="AC275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD275" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE275" s="13"/>
+    </row>
+    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -23775,8 +24851,12 @@
       <c r="AC276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD276" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE276" s="13"/>
+    </row>
+    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -23849,8 +24929,12 @@
       <c r="AC277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD277" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE277" s="13"/>
+    </row>
+    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -23923,8 +25007,12 @@
       <c r="AC278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD278" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE278" s="13"/>
+    </row>
+    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -23997,8 +25085,12 @@
       <c r="AC279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD279" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE279" s="13"/>
+    </row>
+    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -24071,8 +25163,12 @@
       <c r="AC280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD280" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE280" s="13"/>
+    </row>
+    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -24145,8 +25241,12 @@
       <c r="AC281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD281" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE281" s="13"/>
+    </row>
+    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -24219,8 +25319,12 @@
       <c r="AC282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD282" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE282" s="13"/>
+    </row>
+    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -24283,8 +25387,9 @@
       <c r="AC283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE283" s="13"/>
+    </row>
+    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -24347,8 +25452,9 @@
       <c r="AC284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE284" s="13"/>
+    </row>
+    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -24411,8 +25517,9 @@
       <c r="AC285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE285" s="13"/>
+    </row>
+    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -24475,8 +25582,9 @@
       <c r="AC286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE286" s="13"/>
+    </row>
+    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -24535,8 +25643,9 @@
       <c r="AC287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE287" s="13"/>
+    </row>
+    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -24595,8 +25704,9 @@
       <c r="AC288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE288" s="13"/>
+    </row>
+    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -24667,8 +25777,12 @@
       <c r="AC289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD289" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE289" s="13"/>
+    </row>
+    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -24727,8 +25841,9 @@
       <c r="AC290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE290" s="13"/>
+    </row>
+    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -24811,8 +25926,12 @@
       <c r="AC291">
         <v>0.76616312000000164</v>
       </c>
-    </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD291" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE291" s="13"/>
+    </row>
+    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -24883,8 +26002,12 @@
       <c r="AC292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD292" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE292" s="13"/>
+    </row>
+    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -24943,8 +26066,9 @@
       <c r="AC293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE293" s="13"/>
+    </row>
+    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -25003,8 +26127,9 @@
       <c r="AC294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE294" s="13"/>
+    </row>
+    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -25075,8 +26200,12 @@
       <c r="AC295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD295" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE295" s="13"/>
+    </row>
+    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -25135,8 +26264,9 @@
       <c r="AC296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE296" s="13"/>
+    </row>
+    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -25195,8 +26325,9 @@
       <c r="AC297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE297" s="13"/>
+    </row>
+    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -25255,8 +26386,9 @@
       <c r="AC298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE298" s="13"/>
+    </row>
+    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -25315,8 +26447,9 @@
       <c r="AC299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE299" s="13"/>
+    </row>
+    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -25375,8 +26508,9 @@
       <c r="AC300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE300" s="13"/>
+    </row>
+    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -25435,8 +26569,9 @@
       <c r="AC301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE301" s="13"/>
+    </row>
+    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -25495,8 +26630,9 @@
       <c r="AC302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE302" s="13"/>
+    </row>
+    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -25567,8 +26703,12 @@
       <c r="AC303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD303" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE303" s="13"/>
+    </row>
+    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -25627,8 +26767,9 @@
       <c r="AC304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE304" s="13"/>
+    </row>
+    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -25711,8 +26852,12 @@
       <c r="AC305">
         <v>-0.54349435000000312</v>
       </c>
-    </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD305" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE305" s="13"/>
+    </row>
+    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -25795,8 +26940,12 @@
       <c r="AC306">
         <v>-0.39812692999999655</v>
       </c>
-    </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD306" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE306" s="13"/>
+    </row>
+    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -25859,8 +27008,9 @@
       <c r="AC307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE307" s="13"/>
+    </row>
+    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -25943,8 +27093,12 @@
       <c r="AC308">
         <v>4.1847089999997422E-2</v>
       </c>
-    </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD308" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE308" s="13"/>
+    </row>
+    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -26003,8 +27157,9 @@
       <c r="AC309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE309" s="13"/>
+    </row>
+    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -26075,8 +27230,12 @@
       <c r="AC310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD310" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE310" s="13"/>
+    </row>
+    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -26147,8 +27306,14 @@
       <c r="AC311">
         <v>35.582142640000001</v>
       </c>
-    </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD311" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE311" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -26231,8 +27396,12 @@
       <c r="AC312">
         <v>0.6578477699999965</v>
       </c>
-    </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD312" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE312" s="13"/>
+    </row>
+    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -26291,8 +27460,9 @@
       <c r="AC313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE313" s="13"/>
+    </row>
+    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -26375,8 +27545,14 @@
       <c r="AC314">
         <v>-1.1899375000000063</v>
       </c>
-    </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD314" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE314" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -26447,8 +27623,14 @@
       <c r="AC315">
         <v>32.773007739999997</v>
       </c>
-    </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD315" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE315" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -26519,8 +27701,12 @@
       <c r="AC316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD316" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE316" s="13"/>
+    </row>
+    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -26603,8 +27789,14 @@
       <c r="AC317">
         <v>-1.0124685500000012</v>
       </c>
-    </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD317" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE317" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -26663,8 +27855,9 @@
       <c r="AC318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE318" s="13"/>
+    </row>
+    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -26735,8 +27928,12 @@
       <c r="AC319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD319" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE319" s="13"/>
+    </row>
+    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -26795,8 +27992,9 @@
       <c r="AC320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE320" s="13"/>
+    </row>
+    <row r="321" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -26855,8 +28053,9 @@
       <c r="AC321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE321" s="13"/>
+    </row>
+    <row r="322" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -26915,8 +28114,9 @@
       <c r="AC322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE322" s="13"/>
+    </row>
+    <row r="323" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -26975,8 +28175,9 @@
       <c r="AC323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE323" s="13"/>
+    </row>
+    <row r="324" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27035,8 +28236,9 @@
       <c r="AC324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE324" s="13"/>
+    </row>
+    <row r="325" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -27095,8 +28297,9 @@
       <c r="AC325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE325" s="13"/>
+    </row>
+    <row r="326" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -27155,8 +28358,9 @@
       <c r="AC326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE326" s="13"/>
+    </row>
+    <row r="327" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -27215,8 +28419,9 @@
       <c r="AC327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE327" s="13"/>
+    </row>
+    <row r="328" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -27299,8 +28504,12 @@
       <c r="AC328">
         <v>0.40543519999999944</v>
       </c>
-    </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD328" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE328" s="13"/>
+    </row>
+    <row r="329" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -27371,8 +28580,12 @@
       <c r="AC329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD329" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE329" s="13"/>
+    </row>
+    <row r="330" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -27431,8 +28644,9 @@
       <c r="AC330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE330" s="13"/>
+    </row>
+    <row r="331" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -27515,8 +28729,12 @@
       <c r="AC331">
         <v>-0.26941962000000075</v>
       </c>
-    </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD331" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE331" s="13"/>
+    </row>
+    <row r="332" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -27587,8 +28805,12 @@
       <c r="AC332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD332" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE332" s="13"/>
+    </row>
+    <row r="333" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -27647,8 +28869,9 @@
       <c r="AC333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE333" s="13"/>
+    </row>
+    <row r="334" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -27721,8 +28944,12 @@
       <c r="AC334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD334" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE334" s="13"/>
+    </row>
+    <row r="335" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -27785,8 +29012,9 @@
       <c r="AC335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE335" s="13"/>
+    </row>
+    <row r="336" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -27869,8 +29097,12 @@
       <c r="AC336">
         <v>0.17192088999999555</v>
       </c>
-    </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD336" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE336" s="13"/>
+    </row>
+    <row r="337" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -27941,8 +29173,12 @@
       <c r="AC337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD337" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE337" s="13"/>
+    </row>
+    <row r="338" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -28001,8 +29237,9 @@
       <c r="AC338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE338" s="13"/>
+    </row>
+    <row r="339" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -28085,8 +29322,12 @@
       <c r="AC339">
         <v>0.86534637999999831</v>
       </c>
-    </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD339" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE339" s="13"/>
+    </row>
+    <row r="340" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -28169,8 +29410,14 @@
       <c r="AC340">
         <v>1.1550899800000032</v>
       </c>
-    </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD340" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE340" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="341" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -28229,8 +29476,9 @@
       <c r="AC341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE341" s="13"/>
+    </row>
+    <row r="342" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -28289,8 +29537,9 @@
       <c r="AC342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE342" s="13"/>
+    </row>
+    <row r="343" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -28373,8 +29622,12 @@
       <c r="AC343">
         <v>-5.0933729999997013E-2</v>
       </c>
-    </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD343" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE343" s="13"/>
+    </row>
+    <row r="344" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -28433,8 +29686,9 @@
       <c r="AC344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE344" s="13"/>
+    </row>
+    <row r="345" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -28505,8 +29759,12 @@
       <c r="AC345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD345" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE345" s="13"/>
+    </row>
+    <row r="346" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -28589,8 +29847,14 @@
       <c r="AC346">
         <v>1.0216153299999959</v>
       </c>
-    </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD346" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE346" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="347" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -28649,8 +29913,9 @@
       <c r="AC347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE347" s="13"/>
+    </row>
+    <row r="348" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -28733,8 +29998,12 @@
       <c r="AC348">
         <v>0.23121864000000159</v>
       </c>
-    </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD348" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE348" s="13"/>
+    </row>
+    <row r="349" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -28793,8 +30062,9 @@
       <c r="AC349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE349" s="13"/>
+    </row>
+    <row r="350" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -28877,8 +30147,12 @@
       <c r="AC350">
         <v>0.56834128000000561</v>
       </c>
-    </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD350" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE350" s="13"/>
+    </row>
+    <row r="351" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -28937,8 +30211,9 @@
       <c r="AC351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE351" s="13"/>
+    </row>
+    <row r="352" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -29011,8 +30286,12 @@
       <c r="AC352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD352" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE352" s="13"/>
+    </row>
+    <row r="353" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -29075,8 +30354,9 @@
       <c r="AC353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE353" s="13"/>
+    </row>
+    <row r="354" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -29159,8 +30439,14 @@
       <c r="AC354">
         <v>-1.3399717899999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD354" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE354" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="355" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -29243,8 +30529,12 @@
       <c r="AC355">
         <v>0.9103107399999999</v>
       </c>
-    </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD355" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE355" s="13"/>
+    </row>
+    <row r="356" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -29303,8 +30593,9 @@
       <c r="AC356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE356" s="13"/>
+    </row>
+    <row r="357" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -29375,8 +30666,12 @@
       <c r="AC357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD357" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE357" s="13"/>
+    </row>
+    <row r="358" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -29435,8 +30730,9 @@
       <c r="AC358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE358" s="13"/>
+    </row>
+    <row r="359" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -29519,8 +30815,14 @@
       <c r="AC359">
         <v>-1.4536433700000018</v>
       </c>
-    </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD359" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE359" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="360" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -29603,8 +30905,12 @@
       <c r="AC360">
         <v>-0.58383854000000213</v>
       </c>
-    </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD360" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE360" s="13"/>
+    </row>
+    <row r="361" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -29663,8 +30969,9 @@
       <c r="AC361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE361" s="13"/>
+    </row>
+    <row r="362" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -29747,8 +31054,14 @@
       <c r="AC362">
         <v>1.3560681800000012</v>
       </c>
-    </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD362" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE362" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="363" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -29819,8 +31132,14 @@
       <c r="AC363">
         <v>34.573552509999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD363" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE363" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="364" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -29891,8 +31210,12 @@
       <c r="AC364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD364" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE364" s="13"/>
+    </row>
+    <row r="365" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -29951,8 +31274,9 @@
       <c r="AC365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE365" s="13"/>
+    </row>
+    <row r="366" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -30011,8 +31335,9 @@
       <c r="AC366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE366" s="13"/>
+    </row>
+    <row r="367" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -30071,8 +31396,9 @@
       <c r="AC367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE367" s="13"/>
+    </row>
+    <row r="368" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -30135,8 +31461,9 @@
       <c r="AC368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE368" s="13"/>
+    </row>
+    <row r="369" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -30199,8 +31526,9 @@
       <c r="AC369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE369" s="13"/>
+    </row>
+    <row r="370" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -30259,8 +31587,9 @@
       <c r="AC370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE370" s="13"/>
+    </row>
+    <row r="371" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -30331,8 +31660,12 @@
       <c r="AC371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD371" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE371" s="13"/>
+    </row>
+    <row r="372" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -30391,8 +31724,9 @@
       <c r="AC372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE372" s="13"/>
+    </row>
+    <row r="373" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -30463,8 +31797,12 @@
       <c r="AC373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD373" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE373" s="13"/>
+    </row>
+    <row r="374" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -30523,8 +31861,9 @@
       <c r="AC374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE374" s="13"/>
+    </row>
+    <row r="375" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -30583,8 +31922,9 @@
       <c r="AC375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE375" s="13"/>
+    </row>
+    <row r="376" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -30643,8 +31983,9 @@
       <c r="AC376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE376" s="13"/>
+    </row>
+    <row r="377" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -30715,8 +32056,12 @@
       <c r="AC377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD377" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE377" s="13"/>
+    </row>
+    <row r="378" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -30775,8 +32120,9 @@
       <c r="AC378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE378" s="13"/>
+    </row>
+    <row r="379" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -30835,8 +32181,9 @@
       <c r="AC379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE379" s="13"/>
+    </row>
+    <row r="380" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -30895,8 +32242,9 @@
       <c r="AC380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE380" s="13"/>
+    </row>
+    <row r="381" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -30955,8 +32303,9 @@
       <c r="AC381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE381" s="13"/>
+    </row>
+    <row r="382" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -31015,8 +32364,9 @@
       <c r="AC382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE382" s="13"/>
+    </row>
+    <row r="383" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -31087,8 +32437,12 @@
       <c r="AC383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD383" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE383" s="13"/>
+    </row>
+    <row r="384" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -31147,8 +32501,9 @@
       <c r="AC384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE384" s="13"/>
+    </row>
+    <row r="385" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -31207,8 +32562,9 @@
       <c r="AC385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE385" s="13"/>
+    </row>
+    <row r="386" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -31271,8 +32627,9 @@
       <c r="AC386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE386" s="13"/>
+    </row>
+    <row r="387" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -31331,8 +32688,9 @@
       <c r="AC387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE387" s="13"/>
+    </row>
+    <row r="388" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -31403,8 +32761,12 @@
       <c r="AC388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD388" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE388" s="13"/>
+    </row>
+    <row r="389" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -31463,8 +32825,9 @@
       <c r="AC389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE389" s="13"/>
+    </row>
+    <row r="390" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -31547,8 +32910,12 @@
       <c r="AC390">
         <v>0.4100100500000039</v>
       </c>
-    </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD390" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE390" s="13"/>
+    </row>
+    <row r="391" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -31607,8 +32974,9 @@
       <c r="AC391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE391" s="13"/>
+    </row>
+    <row r="392" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -31667,8 +33035,9 @@
       <c r="AC392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE392" s="13"/>
+    </row>
+    <row r="393" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -31751,8 +33120,12 @@
       <c r="AC393">
         <v>0.790545630000004</v>
       </c>
-    </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD393" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE393" s="13"/>
+    </row>
+    <row r="394" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -31811,8 +33184,9 @@
       <c r="AC394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE394" s="13"/>
+    </row>
+    <row r="395" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -31883,8 +33257,12 @@
       <c r="AC395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD395" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE395" s="13"/>
+    </row>
+    <row r="396" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -31943,8 +33321,9 @@
       <c r="AC396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE396" s="13"/>
+    </row>
+    <row r="397" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -32027,8 +33406,14 @@
       <c r="AC397">
         <v>1.1834841999999952</v>
       </c>
-    </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD397" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE397" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="398" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -32087,8 +33472,9 @@
       <c r="AC398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE398" s="13"/>
+    </row>
+    <row r="399" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -32171,8 +33557,12 @@
       <c r="AC399">
         <v>0.35391986000000486</v>
       </c>
-    </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD399" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE399" s="13"/>
+    </row>
+    <row r="400" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -32243,8 +33633,12 @@
       <c r="AC400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD400" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE400" s="13"/>
+    </row>
+    <row r="401" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -32307,8 +33701,9 @@
       <c r="AC401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE401" s="13"/>
+    </row>
+    <row r="402" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -32381,8 +33776,12 @@
       <c r="AC402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD402" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE402" s="13"/>
+    </row>
+    <row r="403" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -32441,8 +33840,9 @@
       <c r="AC403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE403" s="13"/>
+    </row>
+    <row r="404" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -32501,8 +33901,9 @@
       <c r="AC404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE404" s="13"/>
+    </row>
+    <row r="405" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -32585,8 +33986,12 @@
       <c r="AC405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD405" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE405" s="13"/>
+    </row>
+    <row r="406" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -32645,8 +34050,9 @@
       <c r="AC406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE406" s="13"/>
+    </row>
+    <row r="407" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -32705,8 +34111,9 @@
       <c r="AC407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE407" s="13"/>
+    </row>
+    <row r="408" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -32777,8 +34184,12 @@
       <c r="AC408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD408" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE408" s="13"/>
+    </row>
+    <row r="409" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -32849,8 +34260,12 @@
       <c r="AC409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD409" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE409" s="13"/>
+    </row>
+    <row r="410" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -32921,8 +34336,12 @@
       <c r="AC410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD410" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE410" s="13"/>
+    </row>
+    <row r="411" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -32981,8 +34400,9 @@
       <c r="AC411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE411" s="13"/>
+    </row>
+    <row r="412" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -33065,8 +34485,12 @@
       <c r="AC412">
         <v>0.3043885299999971</v>
       </c>
-    </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD412" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE412" s="13"/>
+    </row>
+    <row r="413" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -33125,8 +34549,9 @@
       <c r="AC413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE413" s="13"/>
+    </row>
+    <row r="414" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -33209,8 +34634,12 @@
       <c r="AC414">
         <v>0.59253696999999761</v>
       </c>
-    </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD414" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE414" s="13"/>
+    </row>
+    <row r="415" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -33269,8 +34698,9 @@
       <c r="AC415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE415" s="13"/>
+    </row>
+    <row r="416" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -33341,8 +34771,12 @@
       <c r="AC416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD416" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE416" s="13"/>
+    </row>
+    <row r="417" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -33401,8 +34835,9 @@
       <c r="AC417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE417" s="13"/>
+    </row>
+    <row r="418" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -33461,8 +34896,9 @@
       <c r="AC418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE418" s="13"/>
+    </row>
+    <row r="419" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -33545,8 +34981,12 @@
       <c r="AC419">
         <v>0.19909679999999952</v>
       </c>
-    </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD419" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE419" s="13"/>
+    </row>
+    <row r="420" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -33609,8 +35049,9 @@
       <c r="AC420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE420" s="13"/>
+    </row>
+    <row r="421" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -33673,8 +35114,9 @@
       <c r="AC421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE421" s="13"/>
+    </row>
+    <row r="422" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -33757,8 +35199,12 @@
       <c r="AC422">
         <v>0.75957766999999876</v>
       </c>
-    </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD422" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE422" s="13"/>
+    </row>
+    <row r="423" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -33821,8 +35267,9 @@
       <c r="AC423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE423" s="13"/>
+    </row>
+    <row r="424" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -33895,8 +35342,12 @@
       <c r="AC424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD424" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE424" s="13"/>
+    </row>
+    <row r="425" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -33959,8 +35410,9 @@
       <c r="AC425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE425" s="13"/>
+    </row>
+    <row r="426" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -34043,8 +35495,12 @@
       <c r="AC426">
         <v>-7.5032040000003519E-2</v>
       </c>
-    </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD426" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE426" s="13"/>
+    </row>
+    <row r="427" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -34107,8 +35563,9 @@
       <c r="AC427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE427" s="13"/>
+    </row>
+    <row r="428" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -34171,8 +35628,9 @@
       <c r="AC428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE428" s="13"/>
+    </row>
+    <row r="429" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -34255,8 +35713,12 @@
       <c r="AC429">
         <v>-0.26768282000000454</v>
       </c>
-    </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD429" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE429" s="13"/>
+    </row>
+    <row r="430" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -34319,8 +35781,9 @@
       <c r="AC430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE430" s="13"/>
+    </row>
+    <row r="431" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -34393,8 +35856,12 @@
       <c r="AC431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD431" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE431" s="13"/>
+    </row>
+    <row r="432" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -34467,8 +35934,12 @@
       <c r="AC432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD432" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE432" s="13"/>
+    </row>
+    <row r="433" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -34551,8 +36022,12 @@
       <c r="AC433">
         <v>0.2083277300000006</v>
       </c>
-    </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD433" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE433" s="13"/>
+    </row>
+    <row r="434" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -34615,8 +36090,9 @@
       <c r="AC434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE434" s="13"/>
+    </row>
+    <row r="435" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -34679,8 +36155,9 @@
       <c r="AC435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE435" s="13"/>
+    </row>
+    <row r="436" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -34763,8 +36240,12 @@
       <c r="AC436">
         <v>-0.28457401000000004</v>
       </c>
-    </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD436" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE436" s="13"/>
+    </row>
+    <row r="437" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -34837,8 +36318,14 @@
       <c r="AC437">
         <v>33.0334772</v>
       </c>
-    </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD437" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE437" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="438" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -34901,8 +36388,9 @@
       <c r="AC438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE438" s="13"/>
+    </row>
+    <row r="439" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -34975,8 +36463,12 @@
       <c r="AC439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD439" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE439" s="13"/>
+    </row>
+    <row r="440" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -35049,8 +36541,12 @@
       <c r="AC440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD440" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE440" s="13"/>
+    </row>
+    <row r="441" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -35123,8 +36619,12 @@
       <c r="AC441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD441" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE441" s="13"/>
+    </row>
+    <row r="442" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -35187,8 +36687,9 @@
       <c r="AC442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE442" s="13"/>
+    </row>
+    <row r="443" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -35271,8 +36772,12 @@
       <c r="AC443">
         <v>-8.0490019999999163E-2</v>
       </c>
-    </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD443" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE443" s="13"/>
+    </row>
+    <row r="444" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -35345,8 +36850,12 @@
       <c r="AC444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD444" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE444" s="13"/>
+    </row>
+    <row r="445" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -35419,8 +36928,12 @@
       <c r="AC445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD445" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE445" s="13"/>
+    </row>
+    <row r="446" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -35483,8 +36996,9 @@
       <c r="AC446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE446" s="13"/>
+    </row>
+    <row r="447" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -35547,8 +37061,9 @@
       <c r="AC447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE447" s="13"/>
+    </row>
+    <row r="448" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -35631,8 +37146,12 @@
       <c r="AC448">
         <v>1.4804449999999747E-2</v>
       </c>
-    </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD448" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE448" s="13"/>
+    </row>
+    <row r="449" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -35695,8 +37214,9 @@
       <c r="AC449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE449" s="13"/>
+    </row>
+    <row r="450" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -35779,8 +37299,12 @@
       <c r="AC450">
         <v>0.29248996999999832</v>
       </c>
-    </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD450" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE450" s="13"/>
+    </row>
+    <row r="451" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -35853,8 +37377,12 @@
       <c r="AC451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD451" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE451" s="13"/>
+    </row>
+    <row r="452" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -35917,8 +37445,9 @@
       <c r="AC452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE452" s="13"/>
+    </row>
+    <row r="453" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -35991,8 +37520,12 @@
       <c r="AC453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD453" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE453" s="13"/>
+    </row>
+    <row r="454" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -36055,8 +37588,9 @@
       <c r="AC454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE454" s="13"/>
+    </row>
+    <row r="455" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -36139,8 +37673,12 @@
       <c r="AC455">
         <v>0.8426587000000012</v>
       </c>
-    </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD455" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE455" s="13"/>
+    </row>
+    <row r="456" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -36203,8 +37741,9 @@
       <c r="AC456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE456" s="13"/>
+    </row>
+    <row r="457" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -36287,8 +37826,12 @@
       <c r="AC457">
         <v>-0.10380544000000214</v>
       </c>
-    </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD457" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE457" s="13"/>
+    </row>
+    <row r="458" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -36351,8 +37894,9 @@
       <c r="AC458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE458" s="13"/>
+    </row>
+    <row r="459" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -36415,8 +37959,9 @@
       <c r="AC459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE459" s="13"/>
+    </row>
+    <row r="460" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -36499,8 +38044,12 @@
       <c r="AC460">
         <v>-0.55456794999999914</v>
       </c>
-    </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD460" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE460" s="13"/>
+    </row>
+    <row r="461" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -36560,8 +38109,9 @@
       <c r="AC461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE461" s="13"/>
+    </row>
+    <row r="462" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -36621,8 +38171,9 @@
       <c r="AC462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE462" s="13"/>
+    </row>
+    <row r="463" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -36705,8 +38256,12 @@
       <c r="AC463">
         <v>-0.10905028000000527</v>
       </c>
-    </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD463" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE463" s="13"/>
+    </row>
+    <row r="464" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -36766,8 +38321,9 @@
       <c r="AC464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE464" s="13"/>
+    </row>
+    <row r="465" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -36837,8 +38393,12 @@
       <c r="AC465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD465" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE465" s="13"/>
+    </row>
+    <row r="466" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -36898,8 +38458,9 @@
       <c r="AC466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE466" s="13"/>
+    </row>
+    <row r="467" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -36982,8 +38543,12 @@
       <c r="AC467">
         <v>0.32633159999999606</v>
       </c>
-    </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD467" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE467" s="13"/>
+    </row>
+    <row r="468" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -37043,8 +38608,9 @@
       <c r="AC468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE468" s="13"/>
+    </row>
+    <row r="469" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -37114,8 +38680,12 @@
       <c r="AC469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD469" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE469" s="13"/>
+    </row>
+    <row r="470" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -37175,8 +38745,9 @@
       <c r="AC470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE470" s="13"/>
+    </row>
+    <row r="471" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -37259,8 +38830,14 @@
       <c r="AC471">
         <v>0.99892100999999656</v>
       </c>
-    </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD471" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE471" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="472" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -37320,8 +38897,9 @@
       <c r="AC472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE472" s="13"/>
+    </row>
+    <row r="473" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -37404,8 +38982,14 @@
       <c r="AC473">
         <v>1.3818732000000011</v>
       </c>
-    </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD473" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE473" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="474" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -37465,8 +39049,9 @@
       <c r="AC474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE474" s="13"/>
+    </row>
+    <row r="475" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -37526,8 +39111,9 @@
       <c r="AC475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE475" s="13"/>
+    </row>
+    <row r="476" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -37610,8 +39196,12 @@
       <c r="AC476">
         <v>0.50467562000000044</v>
       </c>
-    </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD476" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE476" s="13"/>
+    </row>
+    <row r="477" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -37671,8 +39261,9 @@
       <c r="AC477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE477" s="13"/>
+    </row>
+    <row r="478" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -37732,8 +39323,9 @@
       <c r="AC478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE478" s="13"/>
+    </row>
+    <row r="479" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -37816,8 +39408,12 @@
       <c r="AC479">
         <v>0.9107662600000026</v>
       </c>
-    </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD479" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE479" s="13"/>
+    </row>
+    <row r="480" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -37877,8 +39473,9 @@
       <c r="AC480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE480" s="13"/>
+    </row>
+    <row r="481" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -37948,8 +39545,12 @@
       <c r="AC481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD481" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE481" s="13"/>
+    </row>
+    <row r="482" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -38009,8 +39610,9 @@
       <c r="AC482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE482" s="13"/>
+    </row>
+    <row r="483" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -38093,8 +39695,14 @@
       <c r="AC483">
         <v>1.5435279499999979</v>
       </c>
-    </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD483" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE483" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="484" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -38154,8 +39762,9 @@
       <c r="AC484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE484" s="13"/>
+    </row>
+    <row r="485" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -38228,8 +39837,14 @@
       <c r="AC485">
         <v>33.397530340000003</v>
       </c>
-    </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD485" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE485" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="486" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -38299,8 +39914,12 @@
       <c r="AC486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD486" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE486" s="13"/>
+    </row>
+    <row r="487" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -38360,8 +39979,9 @@
       <c r="AC487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE487" s="13"/>
+    </row>
+    <row r="488" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -38431,8 +40051,12 @@
       <c r="AC488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD488" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE488" s="13"/>
+    </row>
+    <row r="489" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -38492,8 +40116,9 @@
       <c r="AC489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE489" s="13"/>
+    </row>
+    <row r="490" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -38553,8 +40178,9 @@
       <c r="AC490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE490" s="13"/>
+    </row>
+    <row r="491" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -38624,8 +40250,12 @@
       <c r="AC491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD491" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE491" s="13"/>
+    </row>
+    <row r="492" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -38685,8 +40315,9 @@
       <c r="AC492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE492" s="13"/>
+    </row>
+    <row r="493" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -38756,8 +40387,12 @@
       <c r="AC493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD493" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE493" s="13"/>
+    </row>
+    <row r="494" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -38817,8 +40452,9 @@
       <c r="AC494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE494" s="13"/>
+    </row>
+    <row r="495" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -38888,8 +40524,12 @@
       <c r="AC495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD495" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE495" s="13"/>
+    </row>
+    <row r="496" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -38949,8 +40589,9 @@
       <c r="AC496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE496" s="13"/>
+    </row>
+    <row r="497" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -39010,8 +40651,9 @@
       <c r="AC497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE497" s="13"/>
+    </row>
+    <row r="498" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -39071,8 +40713,9 @@
       <c r="AC498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE498" s="13"/>
+    </row>
+    <row r="499" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -39155,8 +40798,12 @@
       <c r="AC499">
         <v>0.63051659999999998</v>
       </c>
-    </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD499" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE499" s="13"/>
+    </row>
+    <row r="500" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -39216,8 +40863,9 @@
       <c r="AC500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE500" s="13"/>
+    </row>
+    <row r="501" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -39287,8 +40935,12 @@
       <c r="AC501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD501" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE501" s="13"/>
+    </row>
+    <row r="502" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -39348,8 +41000,9 @@
       <c r="AC502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE502" s="13"/>
+    </row>
+    <row r="503" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -39409,8 +41062,9 @@
       <c r="AC503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE503" s="13"/>
+    </row>
+    <row r="504" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -39493,8 +41147,12 @@
       <c r="AC504">
         <v>3.2227869999999825E-2</v>
       </c>
-    </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD504" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE504" s="13"/>
+    </row>
+    <row r="505" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -39577,8 +41235,14 @@
       <c r="AC505">
         <v>-4.9685314900000037</v>
       </c>
-    </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD505" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE505" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="506" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -39651,8 +41315,14 @@
       <c r="AC506">
         <v>33.712650009999997</v>
       </c>
-    </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD506" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE506" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="507" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -39735,8 +41405,12 @@
       <c r="AC507">
         <v>0.70594157000000024</v>
       </c>
-    </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD507" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE507" s="13"/>
+    </row>
+    <row r="508" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -39796,8 +41470,9 @@
       <c r="AC508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE508" s="13"/>
+    </row>
+    <row r="509" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -39867,8 +41542,12 @@
       <c r="AC509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD509" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE509" s="13"/>
+    </row>
+    <row r="510" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -39928,8 +41607,9 @@
       <c r="AC510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE510" s="13"/>
+    </row>
+    <row r="511" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -40012,8 +41692,12 @@
       <c r="AC511">
         <v>0.11284391999999599</v>
       </c>
-    </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD511" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE511" s="13"/>
+    </row>
+    <row r="512" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -40073,8 +41757,9 @@
       <c r="AC512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE512" s="13"/>
+    </row>
+    <row r="513" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -40134,8 +41819,9 @@
       <c r="AC513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE513" s="13"/>
+    </row>
+    <row r="514" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -40218,8 +41904,12 @@
       <c r="AC514">
         <v>-0.3159490899999966</v>
       </c>
-    </row>
-    <row r="515" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD514" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE514" s="13"/>
+    </row>
+    <row r="515" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -40279,8 +41969,9 @@
       <c r="AC515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE515" s="13"/>
+    </row>
+    <row r="516" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -40350,8 +42041,12 @@
       <c r="AC516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD516" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE516" s="13"/>
+    </row>
+    <row r="517" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -40411,8 +42106,9 @@
       <c r="AC517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE517" s="13"/>
+    </row>
+    <row r="518" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -40495,8 +42191,12 @@
       <c r="AC518">
         <v>-0.16827518999999569</v>
       </c>
-    </row>
-    <row r="519" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD518" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE518" s="13"/>
+    </row>
+    <row r="519" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -40556,8 +42256,9 @@
       <c r="AC519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE519" s="13"/>
+    </row>
+    <row r="520" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -40617,8 +42318,9 @@
       <c r="AC520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE520" s="13"/>
+    </row>
+    <row r="521" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -40701,8 +42403,12 @@
       <c r="AC521">
         <v>-2.5345049999998537E-2</v>
       </c>
-    </row>
-    <row r="522" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD521" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE521" s="13"/>
+    </row>
+    <row r="522" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -40762,8 +42468,9 @@
       <c r="AC522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE522" s="13"/>
+    </row>
+    <row r="523" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -40823,8 +42530,9 @@
       <c r="AC523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE523" s="13"/>
+    </row>
+    <row r="524" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -40907,8 +42615,12 @@
       <c r="AC524">
         <v>-0.42700010000000077</v>
       </c>
-    </row>
-    <row r="525" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD524" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE524" s="13"/>
+    </row>
+    <row r="525" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -40968,8 +42680,9 @@
       <c r="AC525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE525" s="13"/>
+    </row>
+    <row r="526" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -41029,8 +42742,9 @@
       <c r="AC526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE526" s="13"/>
+    </row>
+    <row r="527" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -41112,8 +42826,12 @@
       <c r="AC527">
         <v>-3.2944710000002431E-2</v>
       </c>
-    </row>
-    <row r="528" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD527" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE527" s="13"/>
+    </row>
+    <row r="528" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -41167,8 +42885,9 @@
       <c r="AC528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE528" s="13"/>
+    </row>
+    <row r="529" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -41222,8 +42941,9 @@
       <c r="AC529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE529" s="13"/>
+    </row>
+    <row r="530" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -41292,8 +43012,12 @@
       <c r="AC530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD530" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE530" s="13"/>
+    </row>
+    <row r="531" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -41347,8 +43071,9 @@
       <c r="AC531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE531" s="13"/>
+    </row>
+    <row r="532" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -41430,8 +43155,12 @@
       <c r="AC532">
         <v>0.2093775700000009</v>
       </c>
-    </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD532" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE532" s="13"/>
+    </row>
+    <row r="533" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -41485,8 +43214,9 @@
       <c r="AC533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE533" s="13"/>
+    </row>
+    <row r="534" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -41540,8 +43270,9 @@
       <c r="AC534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE534" s="13"/>
+    </row>
+    <row r="535" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -41623,8 +43354,12 @@
       <c r="AC535">
         <v>0.1456331600000027</v>
       </c>
-    </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD535" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE535" s="13"/>
+    </row>
+    <row r="536" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -41693,8 +43428,12 @@
       <c r="AC536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD536" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE536" s="13"/>
+    </row>
+    <row r="537" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -41748,8 +43487,9 @@
       <c r="AC537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE537" s="13"/>
+    </row>
+    <row r="538" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -41803,8 +43543,9 @@
       <c r="AC538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE538" s="13"/>
+    </row>
+    <row r="539" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -41886,8 +43627,12 @@
       <c r="AC539">
         <v>-9.6654770000000667E-2</v>
       </c>
-    </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD539" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE539" s="13"/>
+    </row>
+    <row r="540" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -41941,8 +43686,9 @@
       <c r="AC540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE540" s="13"/>
+    </row>
+    <row r="541" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -41996,8 +43742,9 @@
       <c r="AC541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE541" s="13"/>
+    </row>
+    <row r="542" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -42079,8 +43826,14 @@
       <c r="AC542">
         <v>-4.5858445100000012</v>
       </c>
-    </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD542" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE542" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="543" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -42134,8 +43887,9 @@
       <c r="AC543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE543" s="13"/>
+    </row>
+    <row r="544" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -42189,8 +43943,9 @@
       <c r="AC544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE544" s="13"/>
+    </row>
+    <row r="545" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -42259,8 +44014,12 @@
       <c r="AC545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD545" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE545" s="13"/>
+    </row>
+    <row r="546" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -42314,8 +44073,9 @@
       <c r="AC546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE546" s="13"/>
+    </row>
+    <row r="547" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -42397,8 +44157,14 @@
       <c r="AC547">
         <v>1.9423905399999981</v>
       </c>
-    </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD547" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE547" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="548" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -42452,8 +44218,9 @@
       <c r="AC548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE548" s="13"/>
+    </row>
+    <row r="549" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -42507,8 +44274,9 @@
       <c r="AC549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE549" s="13"/>
+    </row>
+    <row r="550" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -42562,8 +44330,9 @@
       <c r="AC550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE550" s="13"/>
+    </row>
+    <row r="551" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -42617,8 +44386,9 @@
       <c r="AC551">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE551" s="13"/>
+    </row>
+    <row r="552" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -42700,8 +44470,12 @@
       <c r="AC552">
         <v>-7.4036960000000818E-2</v>
       </c>
-    </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD552" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE552" s="13"/>
+    </row>
+    <row r="553" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -42755,8 +44529,9 @@
       <c r="AC553">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE553" s="13"/>
+    </row>
+    <row r="554" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -42810,8 +44585,9 @@
       <c r="AC554">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE554" s="13"/>
+    </row>
+    <row r="555" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -42865,8 +44641,9 @@
       <c r="AC555">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE555" s="13"/>
+    </row>
+    <row r="556" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -42920,8 +44697,9 @@
       <c r="AC556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE556" s="13"/>
+    </row>
+    <row r="557" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -42975,8 +44753,9 @@
       <c r="AC557">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE557" s="13"/>
+    </row>
+    <row r="558" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
@@ -43030,8 +44809,9 @@
       <c r="AC558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE558" s="13"/>
+    </row>
+    <row r="559" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -43085,8 +44865,9 @@
       <c r="AC559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE559" s="13"/>
+    </row>
+    <row r="560" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -43140,8 +44921,9 @@
       <c r="AC560">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE560" s="13"/>
+    </row>
+    <row r="561" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
@@ -43195,8 +44977,9 @@
       <c r="AC561">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE561" s="13"/>
+    </row>
+    <row r="562" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
@@ -43250,8 +45033,9 @@
       <c r="AC562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE562" s="13"/>
+    </row>
+    <row r="563" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -43305,8 +45089,9 @@
       <c r="AC563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE563" s="13"/>
+    </row>
+    <row r="564" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
@@ -43360,8 +45145,9 @@
       <c r="AC564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE564" s="13"/>
+    </row>
+    <row r="565" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
@@ -43415,8 +45201,9 @@
       <c r="AC565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE565" s="13"/>
+    </row>
+    <row r="566" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
@@ -43470,8 +45257,9 @@
       <c r="AC566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE566" s="13"/>
+    </row>
+    <row r="567" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -43525,8 +45313,9 @@
       <c r="AC567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE567" s="13"/>
+    </row>
+    <row r="568" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
@@ -43580,8 +45369,9 @@
       <c r="AC568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE568" s="13"/>
+    </row>
+    <row r="569" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
@@ -43635,8 +45425,9 @@
       <c r="AC569">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE569" s="13"/>
+    </row>
+    <row r="570" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -43690,8 +45481,9 @@
       <c r="AC570">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE570" s="13"/>
+    </row>
+    <row r="571" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -43745,8 +45537,9 @@
       <c r="AC571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE571" s="13"/>
+    </row>
+    <row r="572" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
@@ -43800,8 +45593,9 @@
       <c r="AC572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE572" s="13"/>
+    </row>
+    <row r="573" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>572</v>
       </c>
@@ -43855,8 +45649,9 @@
       <c r="AC573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE573" s="13"/>
+    </row>
+    <row r="574" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
@@ -43910,8 +45705,9 @@
       <c r="AC574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE574" s="13"/>
+    </row>
+    <row r="575" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>574</v>
       </c>
@@ -43965,8 +45761,9 @@
       <c r="AC575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE575" s="13"/>
+    </row>
+    <row r="576" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
@@ -44048,8 +45845,14 @@
       <c r="AC576">
         <v>1.4601166337499976</v>
       </c>
-    </row>
-    <row r="577" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD576" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE576" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="577" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
@@ -44103,8 +45906,9 @@
       <c r="AC577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE577" s="13"/>
+    </row>
+    <row r="578" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>577</v>
       </c>
@@ -44162,8 +45966,9 @@
       <c r="AC578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE578" s="13"/>
+    </row>
+    <row r="579" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>578</v>
       </c>
@@ -44232,8 +46037,12 @@
       <c r="AC579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD579" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE579" s="13"/>
+    </row>
+    <row r="580" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
@@ -44291,8 +46100,9 @@
       <c r="AC580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE580" s="13"/>
+    </row>
+    <row r="581" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
@@ -44350,8 +46160,9 @@
       <c r="AC581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE581" s="13"/>
+    </row>
+    <row r="582" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>581</v>
       </c>
@@ -44433,8 +46244,12 @@
       <c r="AC582">
         <v>-0.88820290000000313</v>
       </c>
-    </row>
-    <row r="583" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD582" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE582" s="13"/>
+    </row>
+    <row r="583" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>582</v>
       </c>
@@ -44488,8 +46303,9 @@
       <c r="AC583">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE583" s="13"/>
+    </row>
+    <row r="584" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>583</v>
       </c>
@@ -44547,8 +46363,9 @@
       <c r="AC584">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE584" s="13"/>
+    </row>
+    <row r="585" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>584</v>
       </c>
@@ -44606,8 +46423,9 @@
       <c r="AC585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE585" s="13"/>
+    </row>
+    <row r="586" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
@@ -44665,8 +46483,9 @@
       <c r="AC586">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE586" s="13"/>
+    </row>
+    <row r="587" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
@@ -44748,8 +46567,14 @@
       <c r="AC587">
         <v>-1.1371904274999949</v>
       </c>
-    </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD587" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE587" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="588" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -44803,8 +46628,9 @@
       <c r="AC588">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE588" s="13"/>
+    </row>
+    <row r="589" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
@@ -44858,8 +46684,9 @@
       <c r="AC589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE589" s="13"/>
+    </row>
+    <row r="590" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
@@ -44917,8 +46744,9 @@
       <c r="AC590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE590" s="13"/>
+    </row>
+    <row r="591" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
@@ -44976,8 +46804,9 @@
       <c r="AC591">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE591" s="13"/>
+    </row>
+    <row r="592" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>591</v>
       </c>
@@ -45035,8 +46864,9 @@
       <c r="AC592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE592" s="13"/>
+    </row>
+    <row r="593" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
@@ -45118,8 +46948,12 @@
       <c r="AC593">
         <v>-0.30396773749999539</v>
       </c>
-    </row>
-    <row r="594" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD593" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE593" s="13"/>
+    </row>
+    <row r="594" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>593</v>
       </c>
@@ -45173,8 +47007,9 @@
       <c r="AC594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE594" s="13"/>
+    </row>
+    <row r="595" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>594</v>
       </c>
@@ -45232,8 +47067,9 @@
       <c r="AC595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE595" s="13"/>
+    </row>
+    <row r="596" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
@@ -45302,8 +47138,12 @@
       <c r="AC596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD596" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE596" s="13"/>
+    </row>
+    <row r="597" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
@@ -45361,8 +47201,9 @@
       <c r="AC597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE597" s="13"/>
+    </row>
+    <row r="598" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
@@ -45416,8 +47257,9 @@
       <c r="AC598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE598" s="13"/>
+    </row>
+    <row r="599" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
@@ -45499,8 +47341,14 @@
       <c r="AC599">
         <v>1.7906795137499998</v>
       </c>
-    </row>
-    <row r="600" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD599" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE599" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="600" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
@@ -45558,8 +47406,9 @@
       <c r="AC600">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE600" s="13"/>
+    </row>
+    <row r="601" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
@@ -45613,8 +47462,9 @@
       <c r="AC601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE601" s="13"/>
+    </row>
+    <row r="602" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
@@ -45672,8 +47522,9 @@
       <c r="AC602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE602" s="13"/>
+    </row>
+    <row r="603" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
@@ -45755,8 +47606,12 @@
       <c r="AC603">
         <v>-0.17446719375000441</v>
       </c>
-    </row>
-    <row r="604" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD603" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE603" s="13"/>
+    </row>
+    <row r="604" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
@@ -45814,8 +47669,9 @@
       <c r="AC604">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE604" s="13"/>
+    </row>
+    <row r="605" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
@@ -45873,8 +47729,9 @@
       <c r="AC605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE605" s="13"/>
+    </row>
+    <row r="606" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
@@ -45943,8 +47800,12 @@
       <c r="AC606">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD606" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE606" s="13"/>
+    </row>
+    <row r="607" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
@@ -46002,8 +47863,9 @@
       <c r="AC607">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE607" s="13"/>
+    </row>
+    <row r="608" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
@@ -46057,8 +47919,9 @@
       <c r="AC608">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE608" s="13"/>
+    </row>
+    <row r="609" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>608</v>
       </c>
@@ -46116,8 +47979,9 @@
       <c r="AC609">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE609" s="13"/>
+    </row>
+    <row r="610" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
@@ -46171,8 +48035,9 @@
       <c r="AC610">
         <v>0</v>
       </c>
-    </row>
-    <row r="611" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE610" s="13"/>
+    </row>
+    <row r="611" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
       </c>
@@ -46230,8 +48095,9 @@
       <c r="AC611">
         <v>0</v>
       </c>
-    </row>
-    <row r="612" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE611" s="13"/>
+    </row>
+    <row r="612" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>611</v>
       </c>
@@ -46285,8 +48151,9 @@
       <c r="AC612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE612" s="13"/>
+    </row>
+    <row r="613" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>612</v>
       </c>
@@ -46344,8 +48211,9 @@
       <c r="AC613">
         <v>0</v>
       </c>
-    </row>
-    <row r="614" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE613" s="13"/>
+    </row>
+    <row r="614" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>613</v>
       </c>
@@ -46403,8 +48271,9 @@
       <c r="AC614">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE614" s="13"/>
+    </row>
+    <row r="615" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>614</v>
       </c>
@@ -46486,8 +48355,12 @@
       <c r="AC615">
         <v>0</v>
       </c>
-    </row>
-    <row r="616" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD615" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE615" s="13"/>
+    </row>
+    <row r="616" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -46541,8 +48414,9 @@
       <c r="AC616">
         <v>0</v>
       </c>
-    </row>
-    <row r="617" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE616" s="13"/>
+    </row>
+    <row r="617" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>616</v>
       </c>
@@ -46600,8 +48474,9 @@
       <c r="AC617">
         <v>0</v>
       </c>
-    </row>
-    <row r="618" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE617" s="13"/>
+    </row>
+    <row r="618" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>617</v>
       </c>
@@ -46683,8 +48558,14 @@
       <c r="AC618">
         <v>1.1368022924999934</v>
       </c>
-    </row>
-    <row r="619" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD618" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE618" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="619" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>618</v>
       </c>
@@ -46742,8 +48623,9 @@
       <c r="AC619">
         <v>0</v>
       </c>
-    </row>
-    <row r="620" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE619" s="13"/>
+    </row>
+    <row r="620" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>619</v>
       </c>
@@ -46801,8 +48683,9 @@
       <c r="AC620">
         <v>0</v>
       </c>
-    </row>
-    <row r="621" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE620" s="13"/>
+    </row>
+    <row r="621" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>620</v>
       </c>
@@ -46884,8 +48767,14 @@
       <c r="AC621">
         <v>1.1291880750000018</v>
       </c>
-    </row>
-    <row r="622" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD621" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE621" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="622" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>621</v>
       </c>
@@ -46943,8 +48832,9 @@
       <c r="AC622">
         <v>0</v>
       </c>
-    </row>
-    <row r="623" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE622" s="13"/>
+    </row>
+    <row r="623" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>622</v>
       </c>
@@ -47002,8 +48892,9 @@
       <c r="AC623">
         <v>0</v>
       </c>
-    </row>
-    <row r="624" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE623" s="13"/>
+    </row>
+    <row r="624" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>623</v>
       </c>
@@ -47085,8 +48976,12 @@
       <c r="AC624">
         <v>0.2498154812499962</v>
       </c>
-    </row>
-    <row r="625" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD624" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE624" s="13"/>
+    </row>
+    <row r="625" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -47144,8 +49039,9 @@
       <c r="AC625">
         <v>0</v>
       </c>
-    </row>
-    <row r="626" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE625" s="13"/>
+    </row>
+    <row r="626" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -47214,8 +49110,12 @@
       <c r="AC626">
         <v>0</v>
       </c>
-    </row>
-    <row r="627" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD626" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE626" s="13"/>
+    </row>
+    <row r="627" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -47273,8 +49173,9 @@
       <c r="AC627">
         <v>0</v>
       </c>
-    </row>
-    <row r="628" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE627" s="13"/>
+    </row>
+    <row r="628" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -47356,8 +49257,14 @@
       <c r="AC628">
         <v>1.051258985000004</v>
       </c>
-    </row>
-    <row r="629" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD628" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE628" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="629" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -47415,8 +49322,9 @@
       <c r="AC629">
         <v>0</v>
       </c>
-    </row>
-    <row r="630" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE629" s="13"/>
+    </row>
+    <row r="630" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -47470,8 +49378,9 @@
       <c r="AC630">
         <v>0</v>
       </c>
-    </row>
-    <row r="631" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE630" s="13"/>
+    </row>
+    <row r="631" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -47529,8 +49438,9 @@
       <c r="AC631">
         <v>0</v>
       </c>
-    </row>
-    <row r="632" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE631" s="13"/>
+    </row>
+    <row r="632" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -47612,8 +49522,12 @@
       <c r="AC632">
         <v>-0.49448980857142999</v>
       </c>
-    </row>
-    <row r="633" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD632" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE632" s="13"/>
+    </row>
+    <row r="633" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -47671,8 +49585,9 @@
       <c r="AC633">
         <v>0</v>
       </c>
-    </row>
-    <row r="634" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE633" s="13"/>
+    </row>
+    <row r="634" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>633</v>
       </c>
@@ -47726,8 +49641,9 @@
       <c r="AC634">
         <v>0</v>
       </c>
-    </row>
-    <row r="635" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE634" s="13"/>
+    </row>
+    <row r="635" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -47785,8 +49701,9 @@
       <c r="AC635">
         <v>0</v>
       </c>
-    </row>
-    <row r="636" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE635" s="13"/>
+    </row>
+    <row r="636" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -47844,8 +49761,9 @@
       <c r="AC636">
         <v>0</v>
       </c>
-    </row>
-    <row r="637" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE636" s="13"/>
+    </row>
+    <row r="637" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>636</v>
       </c>
@@ -47914,8 +49832,12 @@
       <c r="AC637">
         <v>0</v>
       </c>
-    </row>
-    <row r="638" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD637" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE637" s="13"/>
+    </row>
+    <row r="638" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -47973,8 +49895,9 @@
       <c r="AC638">
         <v>0</v>
       </c>
-    </row>
-    <row r="639" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE638" s="13"/>
+    </row>
+    <row r="639" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>638</v>
       </c>
@@ -48028,8 +49951,9 @@
       <c r="AC639">
         <v>0</v>
       </c>
-    </row>
-    <row r="640" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE639" s="13"/>
+    </row>
+    <row r="640" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>
@@ -48087,8 +50011,9 @@
       <c r="AC640">
         <v>0</v>
       </c>
-    </row>
-    <row r="641" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE640" s="13"/>
+    </row>
+    <row r="641" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>640</v>
       </c>
@@ -48142,8 +50067,9 @@
       <c r="AC641">
         <v>0</v>
       </c>
-    </row>
-    <row r="642" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE641" s="13"/>
+    </row>
+    <row r="642" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>641</v>
       </c>
@@ -48195,8 +50121,9 @@
       <c r="AC642">
         <v>0</v>
       </c>
-    </row>
-    <row r="643" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE642" s="13"/>
+    </row>
+    <row r="643" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>642</v>
       </c>
@@ -48248,8 +50175,11 @@
       <c r="AC643">
         <v>0</v>
       </c>
+      <c r="AE643" s="13"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Differentiation Tree Dataset/differentiation-tree-all-variables.xlsx
+++ b/Differentiation Tree Dataset/differentiation-tree-all-variables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5759" uniqueCount="654">
   <si>
     <t>X</t>
   </si>
@@ -1983,6 +1983,9 @@
   </si>
   <si>
     <t>Larger Cells Above Threshold (+/- 0.5)</t>
+  </si>
+  <si>
+    <t>Mspap</t>
   </si>
 </sst>
 </file>
@@ -2375,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView tabSelected="1" topLeftCell="E187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S224" sqref="S224:U224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="P5">
-        <v>23.027641819875139</v>
+        <v>23.0276418198751</v>
       </c>
       <c r="Q5">
         <v>0.46842807012183835</v>
@@ -7666,7 +7669,18 @@
       <c r="E61" s="3">
         <v>14.650432595</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" s="2">
+        <v>371.51993107500004</v>
+      </c>
+      <c r="H61" s="2">
+        <v>239.53510750000001</v>
+      </c>
+      <c r="I61" s="2">
+        <v>14.5626457275</v>
+      </c>
       <c r="J61" s="6" t="s">
         <v>517</v>
       </c>
@@ -7682,14 +7696,14 @@
       <c r="O61">
         <v>60</v>
       </c>
-      <c r="P61" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>2</v>
-      </c>
-      <c r="R61" t="s">
-        <v>2</v>
+      <c r="P61">
+        <v>5.9825950620613186</v>
+      </c>
+      <c r="Q61">
+        <v>1.0159212033913629</v>
+      </c>
+      <c r="R61">
+        <v>0.10647664825611244</v>
       </c>
       <c r="S61">
         <v>52.356193602863762</v>
@@ -7706,21 +7720,23 @@
       <c r="X61" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="Y61" s="5"/>
+      <c r="Y61" s="5" t="s">
+        <v>653</v>
+      </c>
       <c r="Z61" s="6" t="s">
         <v>517</v>
       </c>
       <c r="AA61" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AD61" s="12" t="s">
-        <v>517</v>
+        <v>653</v>
       </c>
       <c r="AE61" s="13"/>
     </row>
@@ -19302,9 +19318,6 @@
       <c r="R205" t="s">
         <v>2</v>
       </c>
-      <c r="S205" t="s">
-        <v>2</v>
-      </c>
       <c r="T205" t="s">
         <v>2</v>
       </c>
